--- a/Code/Results/Cases/Case_6_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.723020363970818</v>
+        <v>1.894751629645725</v>
       </c>
       <c r="C2">
-        <v>0.4591607754118172</v>
+        <v>0.1106060178123585</v>
       </c>
       <c r="D2">
-        <v>0.002961923577876391</v>
+        <v>0.004383924777600967</v>
       </c>
       <c r="E2">
-        <v>0.01757156935235527</v>
+        <v>0.0276823863811142</v>
       </c>
       <c r="F2">
-        <v>3.040896220200764</v>
+        <v>2.704578554044261</v>
       </c>
       <c r="G2">
-        <v>0.0008446950913163281</v>
+        <v>0.000869429089168295</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06380750268143487</v>
+        <v>0.08435255930585939</v>
       </c>
       <c r="K2">
-        <v>0.8801809819132558</v>
+        <v>1.672294984419494</v>
       </c>
       <c r="L2">
-        <v>0.2714868813961004</v>
+        <v>0.1939495182660878</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.820587189445988</v>
+        <v>2.608795982461785</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.299225032633672</v>
+        <v>1.70128070694787</v>
       </c>
       <c r="C3">
-        <v>0.3958232529711836</v>
+        <v>0.09532808840482687</v>
       </c>
       <c r="D3">
-        <v>0.002563305593298537</v>
+        <v>0.003955633479263199</v>
       </c>
       <c r="E3">
-        <v>0.01755509133048072</v>
+        <v>0.02675321652723106</v>
       </c>
       <c r="F3">
-        <v>2.86335354032181</v>
+        <v>2.599156820010293</v>
       </c>
       <c r="G3">
-        <v>0.0008540001070885641</v>
+        <v>0.0008765260260831242</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06417718727322708</v>
+        <v>0.08365820103875166</v>
       </c>
       <c r="K3">
-        <v>0.774185368123085</v>
+        <v>1.487057658433997</v>
       </c>
       <c r="L3">
-        <v>0.2456109218468612</v>
+        <v>0.1771664957264747</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.854513735296095</v>
+        <v>2.623556337959172</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.045034542703263</v>
+        <v>1.585024864644282</v>
       </c>
       <c r="C4">
-        <v>0.3576350706276514</v>
+        <v>0.08606985590729721</v>
       </c>
       <c r="D4">
-        <v>0.002344646554982788</v>
+        <v>0.003689983150222176</v>
       </c>
       <c r="E4">
-        <v>0.01755660678885285</v>
+        <v>0.02621106188197508</v>
       </c>
       <c r="F4">
-        <v>2.759927919441836</v>
+        <v>2.537929359847936</v>
       </c>
       <c r="G4">
-        <v>0.000859867347140863</v>
+        <v>0.0008810171199000738</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06446894217422638</v>
+        <v>0.08331103968691878</v>
       </c>
       <c r="K4">
-        <v>0.7105293555068357</v>
+        <v>1.375564684552188</v>
       </c>
       <c r="L4">
-        <v>0.2301477627032682</v>
+        <v>0.1671174960314872</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.87751864529379</v>
+        <v>2.634759822597829</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.942802092742738</v>
+        <v>1.538233093879199</v>
       </c>
       <c r="C5">
-        <v>0.3422247487078209</v>
+        <v>0.0823233233140428</v>
       </c>
       <c r="D5">
-        <v>0.002261177663527292</v>
+        <v>0.003581039585363044</v>
       </c>
       <c r="E5">
-        <v>0.01756007150493133</v>
+        <v>0.02599698074218004</v>
       </c>
       <c r="F5">
-        <v>2.719071504459606</v>
+        <v>2.513807012325074</v>
       </c>
       <c r="G5">
-        <v>0.0008622988065635533</v>
+        <v>0.0008828818313690464</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06460352771062539</v>
+        <v>0.08318874940990995</v>
       </c>
       <c r="K5">
-        <v>0.6849069415954503</v>
+        <v>1.330642309438474</v>
       </c>
       <c r="L5">
-        <v>0.2239433854245192</v>
+        <v>0.1630820947400693</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.88741272176938</v>
+        <v>2.639842347457474</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.925903667631303</v>
+        <v>1.530497075914866</v>
       </c>
       <c r="C6">
-        <v>0.3396743560076914</v>
+        <v>0.08170267498256578</v>
       </c>
       <c r="D6">
-        <v>0.002247632903214836</v>
+        <v>0.003562907658594128</v>
       </c>
       <c r="E6">
-        <v>0.01756081665547793</v>
+        <v>0.02596183870393354</v>
       </c>
       <c r="F6">
-        <v>2.712362100846676</v>
+        <v>2.509850084096087</v>
       </c>
       <c r="G6">
-        <v>0.0008627050455097836</v>
+        <v>0.0008831935797148218</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06462680693995893</v>
+        <v>0.08316958129192642</v>
       </c>
       <c r="K6">
-        <v>0.6806704398381314</v>
+        <v>1.32321244218565</v>
       </c>
       <c r="L6">
-        <v>0.2229187391857863</v>
+        <v>0.1624154909541318</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.889086243194569</v>
+        <v>2.640716930073012</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.043650529088495</v>
+        <v>1.584391521267037</v>
       </c>
       <c r="C7">
-        <v>0.3574266585878831</v>
+        <v>0.08601922823173425</v>
       </c>
       <c r="D7">
-        <v>0.002343499195793797</v>
+        <v>0.003688516704105638</v>
       </c>
       <c r="E7">
-        <v>0.0175566420842399</v>
+        <v>0.02620814732450327</v>
       </c>
       <c r="F7">
-        <v>2.759371835053429</v>
+        <v>2.537600749985458</v>
       </c>
       <c r="G7">
-        <v>0.0008598999724281159</v>
+        <v>0.0008810421268780264</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06447069444944731</v>
+        <v>0.08330931370253936</v>
       </c>
       <c r="K7">
-        <v>0.7101825665351171</v>
+        <v>1.37495683940557</v>
       </c>
       <c r="L7">
-        <v>0.2300637080034562</v>
+        <v>0.1670628376522743</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.877650011575213</v>
+        <v>2.634826300926932</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.575543976436222</v>
+        <v>1.827482590724287</v>
       </c>
       <c r="C8">
-        <v>0.4371608789875268</v>
+        <v>0.1053099368735815</v>
       </c>
       <c r="D8">
-        <v>0.002818476218344301</v>
+        <v>0.004236793978746434</v>
       </c>
       <c r="E8">
-        <v>0.01756342353899765</v>
+        <v>0.02735594785704087</v>
       </c>
       <c r="F8">
-        <v>2.978448080879971</v>
+        <v>2.667469711558837</v>
       </c>
       <c r="G8">
-        <v>0.0008478726475309857</v>
+        <v>0.0008718490003590764</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06392115464245762</v>
+        <v>0.08409625645921892</v>
       </c>
       <c r="K8">
-        <v>0.8433122214387225</v>
+        <v>1.60792689834031</v>
       </c>
       <c r="L8">
-        <v>0.2624704966412423</v>
+        <v>0.1881067059206245</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.831816717108779</v>
+        <v>2.613427813469031</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.674500386323302</v>
+        <v>2.326978021803541</v>
       </c>
       <c r="C9">
-        <v>0.6003276604424173</v>
+        <v>0.1443342552619669</v>
       </c>
       <c r="D9">
-        <v>0.004004396272117461</v>
+        <v>0.005291881532748732</v>
       </c>
       <c r="E9">
-        <v>0.01767306418913961</v>
+        <v>0.02984558489168876</v>
       </c>
       <c r="F9">
-        <v>3.458114763187268</v>
+        <v>2.952493088155023</v>
       </c>
       <c r="G9">
-        <v>0.0008254184257561533</v>
+        <v>0.0008548335709631424</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06338701121483936</v>
+        <v>0.08630343171000021</v>
       </c>
       <c r="K9">
-        <v>1.117731804409729</v>
+        <v>2.085153079948526</v>
       </c>
       <c r="L9">
-        <v>0.3298843743301205</v>
+        <v>0.2316342600981187</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.760550080115451</v>
+        <v>2.589490788873064</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.528775810330956</v>
+        <v>2.711939218206908</v>
       </c>
       <c r="C10">
-        <v>0.7263183988462458</v>
+        <v>0.1740774729641146</v>
       </c>
       <c r="D10">
-        <v>0.005107349320986998</v>
+        <v>0.006057216827556999</v>
       </c>
       <c r="E10">
-        <v>0.01781890247063167</v>
+        <v>0.03184136490986234</v>
       </c>
       <c r="F10">
-        <v>3.85004052650919</v>
+        <v>3.184317032892636</v>
       </c>
       <c r="G10">
-        <v>0.000809470809892462</v>
+        <v>0.0008428778199977005</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06337214102435951</v>
+        <v>0.0883843101422066</v>
       </c>
       <c r="K10">
-        <v>1.330696310436352</v>
+        <v>2.452125614542069</v>
       </c>
       <c r="L10">
-        <v>0.3825444832991138</v>
+        <v>0.2653444908460187</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.72167611274358</v>
+        <v>2.584480401988372</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.930899477953062</v>
+        <v>2.891987199209154</v>
       </c>
       <c r="C11">
-        <v>0.7854736073041693</v>
+        <v>0.1879272069575393</v>
       </c>
       <c r="D11">
-        <v>0.005680070363782264</v>
+        <v>0.006404027666597756</v>
       </c>
       <c r="E11">
-        <v>0.01790119294603265</v>
+        <v>0.03279068944851993</v>
       </c>
       <c r="F11">
-        <v>4.039252249902518</v>
+        <v>3.295620735972705</v>
       </c>
       <c r="G11">
-        <v>0.0008022991779286226</v>
+        <v>0.0008375397495908886</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06345930924558729</v>
+        <v>0.08944420857125834</v>
       </c>
       <c r="K11">
-        <v>1.430876172280904</v>
+        <v>2.623600417821763</v>
       </c>
       <c r="L11">
-        <v>0.4073815057296741</v>
+        <v>0.281143311619843</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.707477949978568</v>
+        <v>2.585328463636301</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.085436055316393</v>
+        <v>2.960969077765753</v>
       </c>
       <c r="C12">
-        <v>0.8081886594442835</v>
+        <v>0.1932256988424115</v>
       </c>
       <c r="D12">
-        <v>0.005909228734395811</v>
+        <v>0.006535246276996531</v>
       </c>
       <c r="E12">
-        <v>0.01793482428920345</v>
+        <v>0.03315661072329767</v>
       </c>
       <c r="F12">
-        <v>4.112698747608363</v>
+        <v>3.338699654591522</v>
       </c>
       <c r="G12">
-        <v>0.0007995919593679553</v>
+        <v>0.0008355312338859277</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06350698237984531</v>
+        <v>0.08986311340309427</v>
       </c>
       <c r="K12">
-        <v>1.469366930623536</v>
+        <v>2.689276536333949</v>
       </c>
       <c r="L12">
-        <v>0.4169327776213549</v>
+        <v>0.2872006889870846</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.70265744044832</v>
+        <v>2.586136562028315</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.052047731981816</v>
+        <v>2.946075358233827</v>
       </c>
       <c r="C13">
-        <v>0.8032817258594775</v>
+        <v>0.1920820403656904</v>
       </c>
       <c r="D13">
-        <v>0.005859292419735596</v>
+        <v>0.006506989435003163</v>
       </c>
       <c r="E13">
-        <v>0.01792746821458024</v>
+        <v>0.03307750887550753</v>
       </c>
       <c r="F13">
-        <v>4.096796919632453</v>
+        <v>3.329378915170167</v>
       </c>
       <c r="G13">
-        <v>0.0008001746876729095</v>
+        <v>0.0008359632569630338</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06349604280765675</v>
+        <v>0.0897720931425674</v>
       </c>
       <c r="K13">
-        <v>1.461051185729971</v>
+        <v>2.67509746152416</v>
       </c>
       <c r="L13">
-        <v>0.4148689107213528</v>
+        <v>0.285892665563324</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.703669937811156</v>
+        <v>2.585940230057844</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.943565998975544</v>
+        <v>2.897645746790374</v>
       </c>
       <c r="C14">
-        <v>0.7873357815098814</v>
+        <v>0.1883619881032814</v>
       </c>
       <c r="D14">
-        <v>0.005698664114238028</v>
+        <v>0.006414824790770268</v>
       </c>
       <c r="E14">
-        <v>0.01790390920610463</v>
+        <v>0.03282066220656965</v>
       </c>
       <c r="F14">
-        <v>4.045257337322369</v>
+        <v>3.299145664537122</v>
       </c>
       <c r="G14">
-        <v>0.0008020763038988297</v>
+        <v>0.0008373742590148082</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06346293026163963</v>
+        <v>0.08947831287831676</v>
       </c>
       <c r="K14">
-        <v>1.434031212119933</v>
+        <v>2.628988205839164</v>
       </c>
       <c r="L14">
-        <v>0.4081642483028389</v>
+        <v>0.281640109708718</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.707069878597011</v>
+        <v>2.585384959457073</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.877422461112474</v>
+        <v>2.868088531753244</v>
       </c>
       <c r="C15">
-        <v>0.7776109441520873</v>
+        <v>0.1860906192166425</v>
       </c>
       <c r="D15">
-        <v>0.00560194143483983</v>
+        <v>0.006358359567702365</v>
       </c>
       <c r="E15">
-        <v>0.01788980599133616</v>
+        <v>0.03266418880938815</v>
       </c>
       <c r="F15">
-        <v>4.013928986303426</v>
+        <v>3.280750950482286</v>
       </c>
       <c r="G15">
-        <v>0.0008032420995185102</v>
+        <v>0.0008382401684171064</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06344459460220975</v>
+        <v>0.08930068812282954</v>
       </c>
       <c r="K15">
-        <v>1.417555518586937</v>
+        <v>2.600844456233489</v>
       </c>
       <c r="L15">
-        <v>0.4040770824139344</v>
+        <v>0.2790452769146015</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.709226609543435</v>
+        <v>2.585109429604401</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.502794175469376</v>
+        <v>2.700279550572645</v>
       </c>
       <c r="C16">
-        <v>0.7224935928673801</v>
+        <v>0.1731794491232534</v>
       </c>
       <c r="D16">
-        <v>0.005071518719379497</v>
+        <v>0.00603453148613653</v>
       </c>
       <c r="E16">
-        <v>0.01781385995234075</v>
+        <v>0.03178019759585382</v>
       </c>
       <c r="F16">
-        <v>3.837913468524562</v>
+        <v>3.177168191763229</v>
       </c>
       <c r="G16">
-        <v>0.0008099408816142351</v>
+        <v>0.0008432285694470742</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06336842999352399</v>
+        <v>0.08831742730077252</v>
       </c>
       <c r="K16">
-        <v>1.324222351449038</v>
+        <v>2.441018107801085</v>
       </c>
       <c r="L16">
-        <v>0.3809406540534326</v>
+        <v>0.2643220008893934</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.722678649176899</v>
+        <v>2.584491004359762</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.276645309898129</v>
+        <v>2.598659461668774</v>
       </c>
       <c r="C17">
-        <v>0.6891855841654717</v>
+        <v>0.1653460741723194</v>
       </c>
       <c r="D17">
-        <v>0.004765674808371756</v>
+        <v>0.005835582018759666</v>
       </c>
       <c r="E17">
-        <v>0.01777147105392984</v>
+        <v>0.03124883322996119</v>
       </c>
       <c r="F17">
-        <v>3.732882231267752</v>
+        <v>3.11518196708758</v>
       </c>
       <c r="G17">
-        <v>0.0008140693380539732</v>
+        <v>0.0008463134963620578</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06334654019173414</v>
+        <v>0.08774409861992893</v>
       </c>
       <c r="K17">
-        <v>1.267864652225768</v>
+        <v>2.344193006589279</v>
       </c>
       <c r="L17">
-        <v>0.3669859257300203</v>
+        <v>0.2554140013749446</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.731860469568829</v>
+        <v>2.584937894392127</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.147820622338827</v>
+        <v>2.540667940914943</v>
       </c>
       <c r="C18">
-        <v>0.6701976799704994</v>
+        <v>0.1608700617821057</v>
       </c>
       <c r="D18">
-        <v>0.004596300321775715</v>
+        <v>0.005721019101981639</v>
       </c>
       <c r="E18">
-        <v>0.01774857908065286</v>
+        <v>0.03094707546979869</v>
       </c>
       <c r="F18">
-        <v>3.673483968483481</v>
+        <v>3.08007346114222</v>
       </c>
       <c r="G18">
-        <v>0.0008164519598844834</v>
+        <v>0.0008480974423892796</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06334271350477394</v>
+        <v>0.08742491703377553</v>
       </c>
       <c r="K18">
-        <v>1.235754530589176</v>
+        <v>2.288922928185855</v>
       </c>
       <c r="L18">
-        <v>0.3590412290405283</v>
+        <v>0.250333492699923</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.737466014467302</v>
+        <v>2.585486840907862</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.104408497236648</v>
+        <v>2.521108928459</v>
       </c>
       <c r="C19">
-        <v>0.6637964992985417</v>
+        <v>0.1593594049783604</v>
       </c>
       <c r="D19">
-        <v>0.004540018231459442</v>
+        <v>0.005682205109296845</v>
       </c>
       <c r="E19">
-        <v>0.01774107906230338</v>
+        <v>0.03084555625991747</v>
       </c>
       <c r="F19">
-        <v>3.653540327872207</v>
+        <v>3.068277219354343</v>
       </c>
       <c r="G19">
-        <v>0.0008172601530602005</v>
+        <v>0.0008487031465308679</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0633428902226072</v>
+        <v>0.08731862895199782</v>
       </c>
       <c r="K19">
-        <v>1.224932770147589</v>
+        <v>2.270279172603153</v>
       </c>
       <c r="L19">
-        <v>0.3563647769519065</v>
+        <v>0.2486204976342066</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.73941812518558</v>
+        <v>2.58572176793956</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.300587685630603</v>
+        <v>2.609429082493364</v>
       </c>
       <c r="C20">
-        <v>0.6927133496438387</v>
+        <v>0.1661768382620608</v>
       </c>
       <c r="D20">
-        <v>0.004797541706444974</v>
+        <v>0.005856773699441931</v>
       </c>
       <c r="E20">
-        <v>0.01777582812981926</v>
+        <v>0.03130499415941834</v>
       </c>
       <c r="F20">
-        <v>3.74395661548175</v>
+        <v>3.121723547609861</v>
       </c>
       <c r="G20">
-        <v>0.0008136290476978836</v>
+        <v>0.000845984120312416</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06334795548618644</v>
+        <v>0.08780402657755459</v>
       </c>
       <c r="K20">
-        <v>1.273831878594848</v>
+        <v>2.354455993587948</v>
       </c>
       <c r="L20">
-        <v>0.368462844102055</v>
+        <v>0.2563577531847443</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.730849101817299</v>
+        <v>2.584859853474256</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.975365592050537</v>
+        <v>2.911848152285756</v>
       </c>
       <c r="C21">
-        <v>0.7920105335698793</v>
+        <v>0.1894531269803537</v>
       </c>
       <c r="D21">
-        <v>0.005745492984637224</v>
+        <v>0.006441898049622807</v>
       </c>
       <c r="E21">
-        <v>0.01791076048028017</v>
+        <v>0.03289592570373046</v>
       </c>
       <c r="F21">
-        <v>4.060345063066848</v>
+        <v>3.307999882416226</v>
       </c>
       <c r="G21">
-        <v>0.0008015175511908457</v>
+        <v>0.0008369594768721917</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06347224823283781</v>
+        <v>0.08956411649623419</v>
       </c>
       <c r="K21">
-        <v>1.441951881838463</v>
+        <v>2.642510702220932</v>
       </c>
       <c r="L21">
-        <v>0.4101294404550373</v>
+        <v>0.2828870930782159</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.706055667850848</v>
+        <v>2.585534523334474</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.429732229044646</v>
+        <v>3.114219281254407</v>
       </c>
       <c r="C22">
-        <v>0.8587670299062893</v>
+        <v>0.2049840380215642</v>
       </c>
       <c r="D22">
-        <v>0.006437843439449864</v>
+        <v>0.006823715010874309</v>
       </c>
       <c r="E22">
-        <v>0.01801344585744502</v>
+        <v>0.03397344097807853</v>
       </c>
       <c r="F22">
-        <v>4.277720683318989</v>
+        <v>3.435215356508024</v>
       </c>
       <c r="G22">
-        <v>0.0007936497348112181</v>
+        <v>0.0008311356691828122</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06363961094274018</v>
+        <v>0.09081737529140455</v>
       </c>
       <c r="K22">
-        <v>1.555107528947531</v>
+        <v>2.835146678801834</v>
       </c>
       <c r="L22">
-        <v>0.4382230677786509</v>
+        <v>0.3006653205820129</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.693123987863572</v>
+        <v>2.588834067549641</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.185888643655346</v>
+        <v>3.005744537257044</v>
       </c>
       <c r="C23">
-        <v>0.8229493801907779</v>
+        <v>0.196662887272808</v>
       </c>
       <c r="D23">
-        <v>0.006060882149359514</v>
+        <v>0.006619954457949717</v>
       </c>
       <c r="E23">
-        <v>0.01795724792188658</v>
+        <v>0.0333947274227917</v>
       </c>
       <c r="F23">
-        <v>4.160650602266458</v>
+        <v>3.366785028994542</v>
       </c>
       <c r="G23">
-        <v>0.0007978458198107941</v>
+        <v>0.0008342377074418442</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06354198096844144</v>
+        <v>0.09013862050271015</v>
       </c>
       <c r="K23">
-        <v>1.494384676867384</v>
+        <v>2.731900659002378</v>
       </c>
       <c r="L23">
-        <v>0.4231430177607791</v>
+        <v>0.2911336442161883</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.699706252092312</v>
+        <v>2.586798100683097</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.289759650397173</v>
+        <v>2.604558800675704</v>
       </c>
       <c r="C24">
-        <v>0.6911179480594001</v>
+        <v>0.1658011647544129</v>
       </c>
       <c r="D24">
-        <v>0.004783114714722814</v>
+        <v>0.005847193520326144</v>
       </c>
       <c r="E24">
-        <v>0.01777385370519369</v>
+        <v>0.03127959221818521</v>
       </c>
       <c r="F24">
-        <v>3.738946833108969</v>
+        <v>3.118764460517468</v>
       </c>
       <c r="G24">
-        <v>0.000813828074302508</v>
+        <v>0.0008461329987339365</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06334728843770421</v>
+        <v>0.08777690074536082</v>
       </c>
       <c r="K24">
-        <v>1.271133196088314</v>
+        <v>2.349814870511068</v>
       </c>
       <c r="L24">
-        <v>0.3677948875786399</v>
+        <v>0.2559309564446579</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.731305327332407</v>
+        <v>2.58489422895309</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.369987496634508</v>
+        <v>2.189011343847369</v>
       </c>
       <c r="C25">
-        <v>0.5552695943969752</v>
+        <v>0.13361570807416</v>
       </c>
       <c r="D25">
-        <v>0.003649092239458085</v>
+        <v>0.005008395355178052</v>
       </c>
       <c r="E25">
-        <v>0.01763246956938547</v>
+        <v>0.02914444286028051</v>
       </c>
       <c r="F25">
-        <v>3.322127897331853</v>
+        <v>2.871754845188306</v>
       </c>
       <c r="G25">
-        <v>0.0008313853176554858</v>
+        <v>0.0008593353708321612</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06346887446552074</v>
+        <v>0.08562992070157094</v>
       </c>
       <c r="K25">
-        <v>1.041756030326027</v>
+        <v>1.953485063930231</v>
       </c>
       <c r="L25">
-        <v>0.3111587999870977</v>
+        <v>0.2195824035544263</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.777631931718432</v>
+        <v>2.593881876973981</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.894751629645725</v>
+        <v>1.181673225507694</v>
       </c>
       <c r="C2">
-        <v>0.1106060178123585</v>
+        <v>0.1061895563341864</v>
       </c>
       <c r="D2">
-        <v>0.004383924777600967</v>
+        <v>0.05463537279856467</v>
       </c>
       <c r="E2">
-        <v>0.0276823863811142</v>
+        <v>0.04406882716890337</v>
       </c>
       <c r="F2">
-        <v>2.704578554044261</v>
+        <v>1.143174629760836</v>
       </c>
       <c r="G2">
-        <v>0.000869429089168295</v>
+        <v>0.8794287890813308</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01677716300741539</v>
       </c>
       <c r="J2">
-        <v>0.08435255930585939</v>
+        <v>0.6446413370485686</v>
       </c>
       <c r="K2">
-        <v>1.672294984419494</v>
+        <v>0.6728336430601587</v>
       </c>
       <c r="L2">
-        <v>0.1939495182660878</v>
+        <v>0.05956688830022294</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.084696933949743</v>
       </c>
       <c r="N2">
-        <v>2.608795982461785</v>
+        <v>0.2231970309330507</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.213072167834174</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.70128070694787</v>
+        <v>1.036003017763818</v>
       </c>
       <c r="C3">
-        <v>0.09532808840482687</v>
+        <v>0.09279874448340308</v>
       </c>
       <c r="D3">
-        <v>0.003955633479263199</v>
+        <v>0.04891741480750511</v>
       </c>
       <c r="E3">
-        <v>0.02675321652723106</v>
+        <v>0.04225040561029303</v>
       </c>
       <c r="F3">
-        <v>2.599156820010293</v>
+        <v>1.109799636469212</v>
       </c>
       <c r="G3">
-        <v>0.0008765260260831242</v>
+        <v>0.8532100938813159</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02119000350498901</v>
       </c>
       <c r="J3">
-        <v>0.08365820103875166</v>
+        <v>0.6382451586191422</v>
       </c>
       <c r="K3">
-        <v>1.487057658433997</v>
+        <v>0.6656583756216747</v>
       </c>
       <c r="L3">
-        <v>0.1771664957264747</v>
+        <v>0.0593500079815481</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9456535039842038</v>
       </c>
       <c r="N3">
-        <v>2.623556337959172</v>
+        <v>0.2030564796616403</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.25483740175893</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.585024864644282</v>
+        <v>0.9465401433219256</v>
       </c>
       <c r="C4">
-        <v>0.08606985590729721</v>
+        <v>0.08470652497899778</v>
       </c>
       <c r="D4">
-        <v>0.003689983150222176</v>
+        <v>0.04545124199619721</v>
       </c>
       <c r="E4">
-        <v>0.02621106188197508</v>
+        <v>0.04116055208545077</v>
       </c>
       <c r="F4">
-        <v>2.537929359847936</v>
+        <v>1.090302093848052</v>
       </c>
       <c r="G4">
-        <v>0.0008810171199000738</v>
+        <v>0.8379136693055074</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02430346194659805</v>
       </c>
       <c r="J4">
-        <v>0.08331103968691878</v>
+        <v>0.6348231979666679</v>
       </c>
       <c r="K4">
-        <v>1.375564684552188</v>
+        <v>0.6616933284120137</v>
       </c>
       <c r="L4">
-        <v>0.1671174960314872</v>
+        <v>0.05923854375297921</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8605415369583795</v>
       </c>
       <c r="N4">
-        <v>2.634759822597829</v>
+        <v>0.1909719485357186</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.281300795900128</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.538233093879199</v>
+        <v>0.9092720776741317</v>
       </c>
       <c r="C5">
-        <v>0.0823233233140428</v>
+        <v>0.08163100045493366</v>
       </c>
       <c r="D5">
-        <v>0.003581039585363044</v>
+        <v>0.04409049428896594</v>
       </c>
       <c r="E5">
-        <v>0.02599698074218004</v>
+        <v>0.04071158264545893</v>
       </c>
       <c r="F5">
-        <v>2.513807012325074</v>
+        <v>1.081859909789699</v>
       </c>
       <c r="G5">
-        <v>0.0008828818313690464</v>
+        <v>0.8311548229379042</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02576859528455433</v>
       </c>
       <c r="J5">
-        <v>0.08318874940990995</v>
+        <v>0.633186610186641</v>
       </c>
       <c r="K5">
-        <v>1.330642309438474</v>
+        <v>0.65963790798817</v>
       </c>
       <c r="L5">
-        <v>0.1630820947400693</v>
+        <v>0.05916575168652471</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8257136666877045</v>
       </c>
       <c r="N5">
-        <v>2.639842347457474</v>
+        <v>0.1862458570535566</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.291938798672103</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.530497075914866</v>
+        <v>0.9021059616575542</v>
       </c>
       <c r="C6">
-        <v>0.08170267498256578</v>
+        <v>0.08135887238728401</v>
       </c>
       <c r="D6">
-        <v>0.003562907658594128</v>
+        <v>0.04391545477383119</v>
       </c>
       <c r="E6">
-        <v>0.02596183870393354</v>
+        <v>0.04062351741455572</v>
       </c>
       <c r="F6">
-        <v>2.509850084096087</v>
+        <v>1.079571495171336</v>
       </c>
       <c r="G6">
-        <v>0.0008831935797148218</v>
+        <v>0.8291664451151348</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02614507150425815</v>
       </c>
       <c r="J6">
-        <v>0.08316958129192642</v>
+        <v>0.6324758141260389</v>
       </c>
       <c r="K6">
-        <v>1.32321244218565</v>
+        <v>0.6586350794894251</v>
       </c>
       <c r="L6">
-        <v>0.1624154909541318</v>
+        <v>0.05911396778641809</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8196909178794272</v>
       </c>
       <c r="N6">
-        <v>2.640716930073012</v>
+        <v>0.1856257331144207</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.293293887962346</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.584391521267037</v>
+        <v>0.9433598001611188</v>
       </c>
       <c r="C7">
-        <v>0.08601922823173425</v>
+        <v>0.08531316590355686</v>
       </c>
       <c r="D7">
-        <v>0.003688516704105638</v>
+        <v>0.04557023791954862</v>
       </c>
       <c r="E7">
-        <v>0.02620814732450327</v>
+        <v>0.04111643993457292</v>
       </c>
       <c r="F7">
-        <v>2.537600749985458</v>
+        <v>1.087727331831104</v>
       </c>
       <c r="G7">
-        <v>0.0008810421268780264</v>
+        <v>0.8354253258764857</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0246518353945504</v>
       </c>
       <c r="J7">
-        <v>0.08330931370253936</v>
+        <v>0.6335827946688539</v>
       </c>
       <c r="K7">
-        <v>1.37495683940557</v>
+        <v>0.6598420098941027</v>
       </c>
       <c r="L7">
-        <v>0.1670628376522743</v>
+        <v>0.05912836476061933</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8594054404502174</v>
       </c>
       <c r="N7">
-        <v>2.634826300926932</v>
+        <v>0.1913469037485527</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.280302296474023</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.827482590724287</v>
+        <v>1.127860850873901</v>
       </c>
       <c r="C8">
-        <v>0.1053099368735815</v>
+        <v>0.102408798618896</v>
       </c>
       <c r="D8">
-        <v>0.004236793978746434</v>
+        <v>0.05283651735749118</v>
       </c>
       <c r="E8">
-        <v>0.02735594785704087</v>
+        <v>0.04338557425274203</v>
       </c>
       <c r="F8">
-        <v>2.667469711558837</v>
+        <v>1.128201754392592</v>
       </c>
       <c r="G8">
-        <v>0.0008718490003590764</v>
+        <v>0.8670477685556364</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01860313111528455</v>
       </c>
       <c r="J8">
-        <v>0.08409625645921892</v>
+        <v>0.6407232473821836</v>
       </c>
       <c r="K8">
-        <v>1.60792689834031</v>
+        <v>0.6678603009378961</v>
       </c>
       <c r="L8">
-        <v>0.1881067059206245</v>
+        <v>0.05934380728292865</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.035795126542439</v>
       </c>
       <c r="N8">
-        <v>2.613427813469031</v>
+        <v>0.2167738221353517</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.225860547940975</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.326978021803541</v>
+        <v>1.49476148199787</v>
       </c>
       <c r="C9">
-        <v>0.1443342552619669</v>
+        <v>0.1359594491740381</v>
       </c>
       <c r="D9">
-        <v>0.005291881532748732</v>
+        <v>0.06721926750994101</v>
       </c>
       <c r="E9">
-        <v>0.02984558489168876</v>
+        <v>0.04812488184729524</v>
       </c>
       <c r="F9">
-        <v>2.952493088155023</v>
+        <v>1.220361876724809</v>
       </c>
       <c r="G9">
-        <v>0.0008548335709631424</v>
+        <v>0.9401621685860846</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.009619915668130474</v>
       </c>
       <c r="J9">
-        <v>0.08630343171000021</v>
+        <v>0.6611018824712573</v>
       </c>
       <c r="K9">
-        <v>2.085153079948526</v>
+        <v>0.6905201607784619</v>
       </c>
       <c r="L9">
-        <v>0.2316342600981187</v>
+        <v>0.06013639979659757</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.38556221857047</v>
       </c>
       <c r="N9">
-        <v>2.589490788873064</v>
+        <v>0.2682571315580731</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.127719098159218</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.711939218206908</v>
+        <v>1.763694589260012</v>
       </c>
       <c r="C10">
-        <v>0.1740774729641146</v>
+        <v>0.1619236971698683</v>
       </c>
       <c r="D10">
-        <v>0.006057216827556999</v>
+        <v>0.07812567920707636</v>
       </c>
       <c r="E10">
-        <v>0.03184136490986234</v>
+        <v>0.05173654249081672</v>
       </c>
       <c r="F10">
-        <v>3.184317032892636</v>
+        <v>1.292715416632333</v>
       </c>
       <c r="G10">
-        <v>0.0008428778199977005</v>
+        <v>0.9975299365162869</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005465720140056973</v>
       </c>
       <c r="J10">
-        <v>0.0883843101422066</v>
+        <v>0.6783393289089759</v>
       </c>
       <c r="K10">
-        <v>2.452125614542069</v>
+        <v>0.7088050839039113</v>
       </c>
       <c r="L10">
-        <v>0.2653444908460187</v>
+        <v>0.0607787319489077</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.644665448026956</v>
       </c>
       <c r="N10">
-        <v>2.584480401988372</v>
+        <v>0.308024745923845</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.059516599154982</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.891987199209154</v>
+        <v>1.881763472640699</v>
       </c>
       <c r="C11">
-        <v>0.1879272069575393</v>
+        <v>0.1751134145161046</v>
       </c>
       <c r="D11">
-        <v>0.006404027666597756</v>
+        <v>0.08338288846100284</v>
       </c>
       <c r="E11">
-        <v>0.03279068944851993</v>
+        <v>0.05335144321532148</v>
       </c>
       <c r="F11">
-        <v>3.295620735972705</v>
+        <v>1.323067244567099</v>
       </c>
       <c r="G11">
-        <v>0.0008375397495908886</v>
+        <v>1.02093321770414</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004575187114713941</v>
       </c>
       <c r="J11">
-        <v>0.08944420857125834</v>
+        <v>0.6849105406107441</v>
       </c>
       <c r="K11">
-        <v>2.623600417821763</v>
+        <v>0.7147972923926744</v>
       </c>
       <c r="L11">
-        <v>0.281143311619843</v>
+        <v>0.06092201045253631</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.762103555410988</v>
       </c>
       <c r="N11">
-        <v>2.585328463636301</v>
+        <v>0.3272750829322746</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.027994912533309</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.960969077765753</v>
+        <v>1.92895353340802</v>
       </c>
       <c r="C12">
-        <v>0.1932256988424115</v>
+        <v>0.1795680414510343</v>
       </c>
       <c r="D12">
-        <v>0.006535246276996531</v>
+        <v>0.08526334640964706</v>
       </c>
       <c r="E12">
-        <v>0.03315661072329767</v>
+        <v>0.05400220701680247</v>
       </c>
       <c r="F12">
-        <v>3.338699654591522</v>
+        <v>1.336918433802282</v>
       </c>
       <c r="G12">
-        <v>0.0008355312338859277</v>
+        <v>1.032061252685452</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004085249252858247</v>
       </c>
       <c r="J12">
-        <v>0.08986311340309427</v>
+        <v>0.6885499361862628</v>
       </c>
       <c r="K12">
-        <v>2.689276536333949</v>
+        <v>0.7187285505669792</v>
       </c>
       <c r="L12">
-        <v>0.2872006889870846</v>
+        <v>0.06107337944267499</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.807320660653033</v>
       </c>
       <c r="N12">
-        <v>2.586136562028315</v>
+        <v>0.3342475933795868</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1.017041813526415</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.946075358233827</v>
+        <v>1.919276956561134</v>
       </c>
       <c r="C13">
-        <v>0.1920820403656904</v>
+        <v>0.1784883670917168</v>
       </c>
       <c r="D13">
-        <v>0.006506989435003163</v>
+        <v>0.08483350837259707</v>
       </c>
       <c r="E13">
-        <v>0.03307750887550753</v>
+        <v>0.05386862885644916</v>
       </c>
       <c r="F13">
-        <v>3.329378915170167</v>
+        <v>1.334354217652958</v>
       </c>
       <c r="G13">
-        <v>0.0008359632569630338</v>
+        <v>1.030073659142303</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00413709756823355</v>
       </c>
       <c r="J13">
-        <v>0.0897720931425674</v>
+        <v>0.6879712830741482</v>
       </c>
       <c r="K13">
-        <v>2.67509746152416</v>
+        <v>0.7181923367202785</v>
       </c>
       <c r="L13">
-        <v>0.285892665563324</v>
+        <v>0.06105932059643848</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.797702313116673</v>
       </c>
       <c r="N13">
-        <v>2.585940230057844</v>
+        <v>0.332665295443519</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>1.01955711646961</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.897645746790374</v>
+        <v>1.885852275358559</v>
       </c>
       <c r="C14">
-        <v>0.1883619881032814</v>
+        <v>0.1754287688729761</v>
       </c>
       <c r="D14">
-        <v>0.006414824790770268</v>
+        <v>0.08352702847872706</v>
       </c>
       <c r="E14">
-        <v>0.03282066220656965</v>
+        <v>0.05340776738638198</v>
       </c>
       <c r="F14">
-        <v>3.299145664537122</v>
+        <v>1.324384468037096</v>
       </c>
       <c r="G14">
-        <v>0.0008373742590148082</v>
+        <v>1.022022254314749</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004511599213510742</v>
       </c>
       <c r="J14">
-        <v>0.08947831287831676</v>
+        <v>0.6852970003612029</v>
       </c>
       <c r="K14">
-        <v>2.628988205839164</v>
+        <v>0.715252491737175</v>
       </c>
       <c r="L14">
-        <v>0.281640109708718</v>
+        <v>0.06094233634486557</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.765874325070541</v>
       </c>
       <c r="N14">
-        <v>2.585384959457073</v>
+        <v>0.3278143840412611</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1.027160301352342</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.868088531753244</v>
+        <v>1.864425082496609</v>
       </c>
       <c r="C15">
-        <v>0.1860906192166425</v>
+        <v>0.1737933955645303</v>
       </c>
       <c r="D15">
-        <v>0.006358359567702365</v>
+        <v>0.08277615187174092</v>
       </c>
       <c r="E15">
-        <v>0.03266418880938815</v>
+        <v>0.05311277790871394</v>
       </c>
       <c r="F15">
-        <v>3.280750950482286</v>
+        <v>1.317462812571165</v>
       </c>
       <c r="G15">
-        <v>0.0008382401684171064</v>
+        <v>1.016293604136294</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004855285072427051</v>
       </c>
       <c r="J15">
-        <v>0.08930068812282954</v>
+        <v>0.6832594730404224</v>
       </c>
       <c r="K15">
-        <v>2.600844456233489</v>
+        <v>0.7128447430407263</v>
       </c>
       <c r="L15">
-        <v>0.2790452769146015</v>
+        <v>0.06083434242210473</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.746148837931628</v>
       </c>
       <c r="N15">
-        <v>2.585109429604401</v>
+        <v>0.3250047698941927</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1.031514135520904</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.700279550572645</v>
+        <v>1.747904846089</v>
       </c>
       <c r="C16">
-        <v>0.1731794491232534</v>
+        <v>0.1630202375608292</v>
       </c>
       <c r="D16">
-        <v>0.00603453148613653</v>
+        <v>0.07818726382615182</v>
       </c>
       <c r="E16">
-        <v>0.03178019759585382</v>
+        <v>0.0515189195475152</v>
       </c>
       <c r="F16">
-        <v>3.177168191763229</v>
+        <v>1.283640536085485</v>
       </c>
       <c r="G16">
-        <v>0.0008432285694470742</v>
+        <v>0.9890930931494495</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.006361509809761579</v>
       </c>
       <c r="J16">
-        <v>0.08831742730077252</v>
+        <v>0.6744349484912391</v>
       </c>
       <c r="K16">
-        <v>2.441018107801085</v>
+        <v>0.7031954054059923</v>
       </c>
       <c r="L16">
-        <v>0.2643220008893934</v>
+        <v>0.06045866455664139</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.634938880530655</v>
       </c>
       <c r="N16">
-        <v>2.584491004359762</v>
+        <v>0.3080614428515815</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1.058821449630965</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.598659461668774</v>
+        <v>1.676553313763264</v>
       </c>
       <c r="C17">
-        <v>0.1653460741723194</v>
+        <v>0.1564759142868013</v>
       </c>
       <c r="D17">
-        <v>0.005835582018759666</v>
+        <v>0.07538830920080386</v>
       </c>
       <c r="E17">
-        <v>0.03124883322996119</v>
+        <v>0.05055103515348591</v>
       </c>
       <c r="F17">
-        <v>3.11518196708758</v>
+        <v>1.263305701655497</v>
       </c>
       <c r="G17">
-        <v>0.0008463134963620578</v>
+        <v>0.9727579443921996</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.007439852094320187</v>
       </c>
       <c r="J17">
-        <v>0.08774409861992893</v>
+        <v>0.6692181476395831</v>
       </c>
       <c r="K17">
-        <v>2.344193006589279</v>
+        <v>0.6974613962767009</v>
       </c>
       <c r="L17">
-        <v>0.2554140013749446</v>
+        <v>0.06023630519318601</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.566930964182916</v>
       </c>
       <c r="N17">
-        <v>2.584937894392127</v>
+        <v>0.2977766564169997</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1.075845551144354</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.540667940914943</v>
+        <v>1.637991786136269</v>
       </c>
       <c r="C18">
-        <v>0.1608700617821057</v>
+        <v>0.1521417189143932</v>
       </c>
       <c r="D18">
-        <v>0.005721019101981639</v>
+        <v>0.07366179278137253</v>
       </c>
       <c r="E18">
-        <v>0.03094707546979869</v>
+        <v>0.05003194688990931</v>
       </c>
       <c r="F18">
-        <v>3.08007346114222</v>
+        <v>1.253909601949573</v>
       </c>
       <c r="G18">
-        <v>0.0008480974423892796</v>
+        <v>0.9655818275222572</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007823265174513594</v>
       </c>
       <c r="J18">
-        <v>0.08742491703377553</v>
+        <v>0.6673434524334994</v>
       </c>
       <c r="K18">
-        <v>2.288922928185855</v>
+        <v>0.6958099904033688</v>
       </c>
       <c r="L18">
-        <v>0.250333492699923</v>
+        <v>0.06020542574223953</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.528509603881332</v>
       </c>
       <c r="N18">
-        <v>2.585486840907862</v>
+        <v>0.2915100513774291</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1.086582536700714</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.521108928459</v>
+        <v>1.623063979412876</v>
       </c>
       <c r="C19">
-        <v>0.1593594049783604</v>
+        <v>0.1511345795212975</v>
       </c>
       <c r="D19">
-        <v>0.005682205109296845</v>
+        <v>0.07317254660893724</v>
       </c>
       <c r="E19">
-        <v>0.03084555625991747</v>
+        <v>0.04983050538128531</v>
       </c>
       <c r="F19">
-        <v>3.068277219354343</v>
+        <v>1.24909197220164</v>
       </c>
       <c r="G19">
-        <v>0.0008487031465308679</v>
+        <v>0.9615566360878773</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008183875203074287</v>
       </c>
       <c r="J19">
-        <v>0.08731862895199782</v>
+        <v>0.6659061536163051</v>
       </c>
       <c r="K19">
-        <v>2.270279172603153</v>
+        <v>0.6940424884289769</v>
       </c>
       <c r="L19">
-        <v>0.2486204976342066</v>
+        <v>0.06012287497252089</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.515033337303805</v>
       </c>
       <c r="N19">
-        <v>2.58572176793956</v>
+        <v>0.2896952973896987</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.089580974040437</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.609429082493364</v>
+        <v>1.684335581163509</v>
       </c>
       <c r="C20">
-        <v>0.1661768382620608</v>
+        <v>0.1571236713436974</v>
       </c>
       <c r="D20">
-        <v>0.005856773699441931</v>
+        <v>0.07567605710482184</v>
       </c>
       <c r="E20">
-        <v>0.03130499415941834</v>
+        <v>0.05065637632376863</v>
       </c>
       <c r="F20">
-        <v>3.121723547609861</v>
+        <v>1.265624016145637</v>
       </c>
       <c r="G20">
-        <v>0.000845984120312416</v>
+        <v>0.9746482701742849</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.007296318262271839</v>
       </c>
       <c r="J20">
-        <v>0.08780402657755459</v>
+        <v>0.6698489844541342</v>
       </c>
       <c r="K20">
-        <v>2.354455993587948</v>
+        <v>0.6981888852120406</v>
       </c>
       <c r="L20">
-        <v>0.2563577531847443</v>
+        <v>0.06026705014905787</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.574211690705795</v>
       </c>
       <c r="N20">
-        <v>2.584859853474256</v>
+        <v>0.2988368615246912</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.074089102020348</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.911848152285756</v>
+        <v>1.892925476217357</v>
       </c>
       <c r="C21">
-        <v>0.1894531269803537</v>
+        <v>0.1769900375834652</v>
       </c>
       <c r="D21">
-        <v>0.006441898049622807</v>
+        <v>0.08404721168173523</v>
       </c>
       <c r="E21">
-        <v>0.03289592570373046</v>
+        <v>0.05350473690571356</v>
       </c>
       <c r="F21">
-        <v>3.307999882416226</v>
+        <v>1.324900895489307</v>
       </c>
       <c r="G21">
-        <v>0.0008369594768721917</v>
+        <v>1.022040739884957</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004691152596278947</v>
       </c>
       <c r="J21">
-        <v>0.08956411649623419</v>
+        <v>0.6849023762524524</v>
       </c>
       <c r="K21">
-        <v>2.642510702220932</v>
+        <v>0.7143491889135873</v>
       </c>
       <c r="L21">
-        <v>0.2828870930782159</v>
+        <v>0.06087169334316656</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.774514415270829</v>
       </c>
       <c r="N21">
-        <v>2.585534523334474</v>
+        <v>0.3296724772799564</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1.024007665910332</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.114219281254407</v>
+        <v>2.033214462295689</v>
       </c>
       <c r="C22">
-        <v>0.2049840380215642</v>
+        <v>0.1893619485975506</v>
       </c>
       <c r="D22">
-        <v>0.006823715010874309</v>
+        <v>0.08940037205235996</v>
       </c>
       <c r="E22">
-        <v>0.03397344097807853</v>
+        <v>0.05544850023785841</v>
       </c>
       <c r="F22">
-        <v>3.435215356508024</v>
+        <v>1.368119065310978</v>
       </c>
       <c r="G22">
-        <v>0.0008311356691828122</v>
+        <v>1.057199592371106</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003138165553108863</v>
       </c>
       <c r="J22">
-        <v>0.09081737529140455</v>
+        <v>0.6969069066953466</v>
       </c>
       <c r="K22">
-        <v>2.835146678801834</v>
+        <v>0.7277854802361645</v>
       </c>
       <c r="L22">
-        <v>0.3006653205820129</v>
+        <v>0.06142726403595589</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.907098844536591</v>
       </c>
       <c r="N22">
-        <v>2.588834067549641</v>
+        <v>0.3496509614332695</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.9933546534662767</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.005744537257044</v>
+        <v>1.961602056447987</v>
       </c>
       <c r="C23">
-        <v>0.196662887272808</v>
+        <v>0.1819364222868387</v>
       </c>
       <c r="D23">
-        <v>0.006619954457949717</v>
+        <v>0.08637320443963858</v>
       </c>
       <c r="E23">
-        <v>0.0333947274227917</v>
+        <v>0.05445403462989873</v>
       </c>
       <c r="F23">
-        <v>3.366785028994542</v>
+        <v>1.347817980629046</v>
       </c>
       <c r="G23">
-        <v>0.0008342377074418442</v>
+        <v>1.041142145398908</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003584288209353304</v>
       </c>
       <c r="J23">
-        <v>0.09013862050271015</v>
+        <v>0.6918553956287781</v>
       </c>
       <c r="K23">
-        <v>2.731900659002378</v>
+        <v>0.7226818094726255</v>
       </c>
       <c r="L23">
-        <v>0.2911336442161883</v>
+        <v>0.06125470604035144</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.837110359223914</v>
       </c>
       <c r="N23">
-        <v>2.586798100683097</v>
+        <v>0.3384274822686848</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1.010729233020889</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.604558800675704</v>
+        <v>1.685980342228902</v>
       </c>
       <c r="C24">
-        <v>0.1658011647544129</v>
+        <v>0.1555788043684601</v>
       </c>
       <c r="D24">
-        <v>0.005847193520326144</v>
+        <v>0.07528713813562149</v>
       </c>
       <c r="E24">
-        <v>0.03127959221818521</v>
+        <v>0.05068092932427604</v>
       </c>
       <c r="F24">
-        <v>3.118764460517468</v>
+        <v>1.269135896782302</v>
       </c>
       <c r="G24">
-        <v>0.0008461329987339365</v>
+        <v>0.9782319194405034</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.006786454951961396</v>
       </c>
       <c r="J24">
-        <v>0.08777690074536082</v>
+        <v>0.6717991096429472</v>
       </c>
       <c r="K24">
-        <v>2.349814870511068</v>
+        <v>0.7012089177028074</v>
       </c>
       <c r="L24">
-        <v>0.2559309564446579</v>
+        <v>0.06045247301163315</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.57223900711881</v>
       </c>
       <c r="N24">
-        <v>2.58489422895309</v>
+        <v>0.2975331821682801</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.076672955583767</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.189011343847369</v>
+        <v>1.390455224656591</v>
       </c>
       <c r="C25">
-        <v>0.13361570807416</v>
+        <v>0.1279298821895907</v>
       </c>
       <c r="D25">
-        <v>0.005008395355178052</v>
+        <v>0.0635340766479473</v>
       </c>
       <c r="E25">
-        <v>0.02914444286028051</v>
+        <v>0.04674802094325159</v>
       </c>
       <c r="F25">
-        <v>2.871754845188306</v>
+        <v>1.190020623368554</v>
       </c>
       <c r="G25">
-        <v>0.0008593353708321612</v>
+        <v>0.9152642741461818</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01218833477562242</v>
       </c>
       <c r="J25">
-        <v>0.08562992070157094</v>
+        <v>0.6529272973983637</v>
       </c>
       <c r="K25">
-        <v>1.953485063930231</v>
+        <v>0.6806974011591649</v>
       </c>
       <c r="L25">
-        <v>0.2195824035544263</v>
+        <v>0.05970760447985413</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.289314605366002</v>
       </c>
       <c r="N25">
-        <v>2.593881876973981</v>
+        <v>0.2548442944506917</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.15168072628521</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.181673225507694</v>
+        <v>1.09853652119466</v>
       </c>
       <c r="C2">
-        <v>0.1061895563341864</v>
+        <v>0.1181237070865535</v>
       </c>
       <c r="D2">
-        <v>0.05463537279856467</v>
+        <v>0.0594500509142577</v>
       </c>
       <c r="E2">
-        <v>0.04406882716890337</v>
+        <v>0.04190186911188398</v>
       </c>
       <c r="F2">
-        <v>1.143174629760836</v>
+        <v>1.033969952811134</v>
       </c>
       <c r="G2">
-        <v>0.8794287890813308</v>
+        <v>0.771398210965117</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01677716300741539</v>
+        <v>0.01206475459078682</v>
       </c>
       <c r="J2">
-        <v>0.6446413370485686</v>
+        <v>0.5913607462629784</v>
       </c>
       <c r="K2">
-        <v>0.6728336430601587</v>
+        <v>0.5815324799214956</v>
       </c>
       <c r="L2">
-        <v>0.05956688830022294</v>
+        <v>0.2427286058553584</v>
       </c>
       <c r="M2">
-        <v>1.084696933949743</v>
+        <v>0.1945470970506946</v>
       </c>
       <c r="N2">
-        <v>0.2231970309330507</v>
+        <v>0.05257967494048543</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.068919225713046</v>
       </c>
       <c r="P2">
-        <v>1.213072167834174</v>
+        <v>0.2403621880018818</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.123170030428152</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.036003017763818</v>
+        <v>0.9644971704688601</v>
       </c>
       <c r="C3">
-        <v>0.09279874448340308</v>
+        <v>0.1013435207414517</v>
       </c>
       <c r="D3">
-        <v>0.04891741480750511</v>
+        <v>0.05310407844054765</v>
       </c>
       <c r="E3">
-        <v>0.04225040561029303</v>
+        <v>0.04021800340898629</v>
       </c>
       <c r="F3">
-        <v>1.109799636469212</v>
+        <v>1.007681509327917</v>
       </c>
       <c r="G3">
-        <v>0.8532100938813159</v>
+        <v>0.7556703220535326</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02119000350498901</v>
+        <v>0.01529505149301791</v>
       </c>
       <c r="J3">
-        <v>0.6382451586191422</v>
+        <v>0.5824996102253124</v>
       </c>
       <c r="K3">
-        <v>0.6656583756216747</v>
+        <v>0.5788171926721581</v>
       </c>
       <c r="L3">
-        <v>0.0593500079815481</v>
+        <v>0.2457428470506144</v>
       </c>
       <c r="M3">
-        <v>0.9456535039842038</v>
+        <v>0.1910887798916292</v>
       </c>
       <c r="N3">
-        <v>0.2030564796616403</v>
+        <v>0.05259417925538656</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9324275183378745</v>
       </c>
       <c r="P3">
-        <v>1.25483740175893</v>
+        <v>0.2182803413231511</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.162888893038259</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9465401433219256</v>
+        <v>0.881871640497252</v>
       </c>
       <c r="C4">
-        <v>0.08470652497899778</v>
+        <v>0.09124661696525038</v>
       </c>
       <c r="D4">
-        <v>0.04545124199619721</v>
+        <v>0.04926369545732712</v>
       </c>
       <c r="E4">
-        <v>0.04116055208545077</v>
+        <v>0.03920685746489383</v>
       </c>
       <c r="F4">
-        <v>1.090302093848052</v>
+        <v>0.9922694067516744</v>
       </c>
       <c r="G4">
-        <v>0.8379136693055074</v>
+        <v>0.7467826619621718</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02430346194659805</v>
+        <v>0.01759763538381831</v>
       </c>
       <c r="J4">
-        <v>0.6348231979666679</v>
+        <v>0.5771930221123398</v>
       </c>
       <c r="K4">
-        <v>0.6616933284120137</v>
+        <v>0.5774180796417383</v>
       </c>
       <c r="L4">
-        <v>0.05923854375297921</v>
+        <v>0.2475510241681924</v>
       </c>
       <c r="M4">
-        <v>0.8605415369583795</v>
+        <v>0.1897366115468522</v>
       </c>
       <c r="N4">
-        <v>0.1909719485357186</v>
+        <v>0.05261588080620427</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8487146127991707</v>
       </c>
       <c r="P4">
-        <v>1.281300795900128</v>
+        <v>0.2050363628713896</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.188048803715878</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9092720776741317</v>
+        <v>0.8473523924007509</v>
       </c>
       <c r="C5">
-        <v>0.08163100045493366</v>
+        <v>0.08739309390867334</v>
       </c>
       <c r="D5">
-        <v>0.04409049428896594</v>
+        <v>0.04775412630704778</v>
       </c>
       <c r="E5">
-        <v>0.04071158264545893</v>
+        <v>0.03878952002622604</v>
       </c>
       <c r="F5">
-        <v>1.081859909789699</v>
+        <v>0.9854738569383699</v>
       </c>
       <c r="G5">
-        <v>0.8311548229379042</v>
+        <v>0.7426897169485187</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02576859528455433</v>
+        <v>0.01872134251313362</v>
       </c>
       <c r="J5">
-        <v>0.633186610186641</v>
+        <v>0.5747094781699928</v>
       </c>
       <c r="K5">
-        <v>0.65963790798817</v>
+        <v>0.5764192956036922</v>
       </c>
       <c r="L5">
-        <v>0.05916575168652471</v>
+        <v>0.2480465075695513</v>
       </c>
       <c r="M5">
-        <v>0.8257136666877045</v>
+        <v>0.1892384650991872</v>
       </c>
       <c r="N5">
-        <v>0.1862458570535566</v>
+        <v>0.05259867245343131</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8144215732744442</v>
       </c>
       <c r="P5">
-        <v>1.291938798672103</v>
+        <v>0.1998474489982911</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.198224071275613</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9021059616575542</v>
+        <v>0.8406824621334579</v>
       </c>
       <c r="C6">
-        <v>0.08135887238728401</v>
+        <v>0.08701762110361244</v>
       </c>
       <c r="D6">
-        <v>0.04391545477383119</v>
+        <v>0.04755555257187183</v>
       </c>
       <c r="E6">
-        <v>0.04062351741455572</v>
+        <v>0.03870726740904651</v>
       </c>
       <c r="F6">
-        <v>1.079571495171336</v>
+        <v>0.9835119001455794</v>
       </c>
       <c r="G6">
-        <v>0.8291664451151348</v>
+        <v>0.7412200269175599</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02614507150425815</v>
+        <v>0.01905305633468846</v>
       </c>
       <c r="J6">
-        <v>0.6324758141260389</v>
+        <v>0.5738671270639628</v>
       </c>
       <c r="K6">
-        <v>0.6586350794894251</v>
+        <v>0.575654679728391</v>
       </c>
       <c r="L6">
-        <v>0.05911396778641809</v>
+        <v>0.2478472775378755</v>
       </c>
       <c r="M6">
-        <v>0.8196909178794272</v>
+        <v>0.1889967185115182</v>
       </c>
       <c r="N6">
-        <v>0.1856257331144207</v>
+        <v>0.05256030264888345</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8084904865761473</v>
       </c>
       <c r="P6">
-        <v>1.293293887962346</v>
+        <v>0.1991527462522527</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.199599899094386</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9433598001611188</v>
+        <v>0.8782063696151283</v>
       </c>
       <c r="C7">
-        <v>0.08531316590355686</v>
+        <v>0.09157751830929328</v>
       </c>
       <c r="D7">
-        <v>0.04557023791954862</v>
+        <v>0.0495501565554477</v>
       </c>
       <c r="E7">
-        <v>0.04111643993457292</v>
+        <v>0.03920438333157072</v>
       </c>
       <c r="F7">
-        <v>1.087727331831104</v>
+        <v>0.9884854537334036</v>
       </c>
       <c r="G7">
-        <v>0.8354253258764857</v>
+        <v>0.7476159353403062</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0246518353945504</v>
+        <v>0.01799032881516283</v>
       </c>
       <c r="J7">
-        <v>0.6335827946688539</v>
+        <v>0.5705133704766183</v>
       </c>
       <c r="K7">
-        <v>0.6598420098941027</v>
+        <v>0.5750346981835435</v>
       </c>
       <c r="L7">
-        <v>0.05912836476061933</v>
+        <v>0.2464751087622226</v>
       </c>
       <c r="M7">
-        <v>0.8594054404502174</v>
+        <v>0.1890361867923218</v>
       </c>
       <c r="N7">
-        <v>0.1913469037485527</v>
+        <v>0.05251387302548771</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8464426406106327</v>
       </c>
       <c r="P7">
-        <v>1.280302296474023</v>
+        <v>0.2053497822268397</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.186887107732565</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.127860850873901</v>
+        <v>1.046809064949741</v>
       </c>
       <c r="C8">
-        <v>0.102408798618896</v>
+        <v>0.1121275649028775</v>
       </c>
       <c r="D8">
-        <v>0.05283651735749118</v>
+        <v>0.05799600663033999</v>
       </c>
       <c r="E8">
-        <v>0.04338557425274203</v>
+        <v>0.0414000985296159</v>
       </c>
       <c r="F8">
-        <v>1.128201754392592</v>
+        <v>1.017126778595042</v>
       </c>
       <c r="G8">
-        <v>0.8670477685556364</v>
+        <v>0.7732193041616426</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01860313111528455</v>
+        <v>0.01358479962894865</v>
       </c>
       <c r="J8">
-        <v>0.6407232473821836</v>
+        <v>0.5688465452377187</v>
       </c>
       <c r="K8">
-        <v>0.6678603009378961</v>
+        <v>0.5760039077289498</v>
       </c>
       <c r="L8">
-        <v>0.05934380728292865</v>
+        <v>0.2418416152721576</v>
       </c>
       <c r="M8">
-        <v>1.035795126542439</v>
+        <v>0.1917275254234667</v>
       </c>
       <c r="N8">
-        <v>0.2167738221353517</v>
+        <v>0.05244113821435015</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.017067727835155</v>
       </c>
       <c r="P8">
-        <v>1.225860547940975</v>
+        <v>0.2330641981914283</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.1343549827674</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.49476148199787</v>
+        <v>1.382066535954607</v>
       </c>
       <c r="C9">
-        <v>0.1359594491740381</v>
+        <v>0.1541517642544363</v>
       </c>
       <c r="D9">
-        <v>0.06721926750994101</v>
+        <v>0.07416919894666307</v>
       </c>
       <c r="E9">
-        <v>0.04812488184729524</v>
+        <v>0.04581534528224829</v>
       </c>
       <c r="F9">
-        <v>1.220361876724809</v>
+        <v>1.088595096285047</v>
       </c>
       <c r="G9">
-        <v>0.9401621685860846</v>
+        <v>0.8226119228826434</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009619915668130474</v>
+        <v>0.006997468675288054</v>
       </c>
       <c r="J9">
-        <v>0.6611018824712573</v>
+        <v>0.5882442363733276</v>
       </c>
       <c r="K9">
-        <v>0.6905201607784619</v>
+        <v>0.5856973397083038</v>
       </c>
       <c r="L9">
-        <v>0.06013639979659757</v>
+        <v>0.2348555939970609</v>
       </c>
       <c r="M9">
-        <v>1.38556221857047</v>
+        <v>0.2049428109223683</v>
       </c>
       <c r="N9">
-        <v>0.2682571315580731</v>
+        <v>0.05258925439304818</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.35823764462603</v>
       </c>
       <c r="P9">
-        <v>1.127719098159218</v>
+        <v>0.2894961868842785</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.040594064844731</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.763694589260012</v>
+        <v>1.622112913064484</v>
       </c>
       <c r="C10">
-        <v>0.1619236971698683</v>
+        <v>0.1847167959661107</v>
       </c>
       <c r="D10">
-        <v>0.07812567920707636</v>
+        <v>0.08746690654268718</v>
       </c>
       <c r="E10">
-        <v>0.05173654249081672</v>
+        <v>0.04940360060064464</v>
       </c>
       <c r="F10">
-        <v>1.292715416632333</v>
+        <v>1.136286092547834</v>
       </c>
       <c r="G10">
-        <v>0.9975299365162869</v>
+        <v>0.8810657551757259</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.005465720140056973</v>
+        <v>0.004158982843251557</v>
       </c>
       <c r="J10">
-        <v>0.6783393289089759</v>
+        <v>0.5726302860141601</v>
       </c>
       <c r="K10">
-        <v>0.7088050839039113</v>
+        <v>0.5895180279524652</v>
       </c>
       <c r="L10">
-        <v>0.0607787319489077</v>
+        <v>0.2278156712514274</v>
       </c>
       <c r="M10">
-        <v>1.644665448026956</v>
+        <v>0.2166506672574258</v>
       </c>
       <c r="N10">
-        <v>0.308024745923845</v>
+        <v>0.05269797150529598</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.602897581128872</v>
       </c>
       <c r="P10">
-        <v>1.059516599154982</v>
+        <v>0.3326625024324841</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.9737915711334413</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.881763472640699</v>
+        <v>1.719876428930803</v>
       </c>
       <c r="C11">
-        <v>0.1751134145161046</v>
+        <v>0.196540779632258</v>
       </c>
       <c r="D11">
-        <v>0.08338288846100284</v>
+        <v>0.09567608751167711</v>
       </c>
       <c r="E11">
-        <v>0.05335144321532148</v>
+        <v>0.05143121305899534</v>
       </c>
       <c r="F11">
-        <v>1.323067244567099</v>
+        <v>1.141271974143507</v>
       </c>
       <c r="G11">
-        <v>1.02093321770414</v>
+        <v>0.9392930290731556</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.004575187114713941</v>
+        <v>0.003854418928412429</v>
       </c>
       <c r="J11">
-        <v>0.6849105406107441</v>
+        <v>0.5157586300028072</v>
       </c>
       <c r="K11">
-        <v>0.7147972923926744</v>
+        <v>0.5819735421088055</v>
       </c>
       <c r="L11">
-        <v>0.06092201045253631</v>
+        <v>0.2212997181357785</v>
       </c>
       <c r="M11">
-        <v>1.762103555410988</v>
+        <v>0.2188722212268104</v>
       </c>
       <c r="N11">
-        <v>0.3272750829322746</v>
+        <v>0.05257985597400605</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.7009703316117</v>
       </c>
       <c r="P11">
-        <v>1.027994912533309</v>
+        <v>0.3527920256284887</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.9408011815490909</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.92895353340802</v>
+        <v>1.758240261624707</v>
       </c>
       <c r="C12">
-        <v>0.1795680414510343</v>
+        <v>0.1999570820807719</v>
       </c>
       <c r="D12">
-        <v>0.08526334640964706</v>
+        <v>0.09892444601770478</v>
       </c>
       <c r="E12">
-        <v>0.05400220701680247</v>
+        <v>0.05229399366713849</v>
       </c>
       <c r="F12">
-        <v>1.336918433802282</v>
+        <v>1.143455660842079</v>
       </c>
       <c r="G12">
-        <v>1.032061252685452</v>
+        <v>0.9683677238207338</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.004085249252858247</v>
+        <v>0.003526202211068252</v>
       </c>
       <c r="J12">
-        <v>0.6885499361862628</v>
+        <v>0.4909751577363437</v>
       </c>
       <c r="K12">
-        <v>0.7187285505669792</v>
+        <v>0.5796245167904743</v>
       </c>
       <c r="L12">
-        <v>0.06107337944267499</v>
+        <v>0.2190431580204191</v>
       </c>
       <c r="M12">
-        <v>1.807320660653033</v>
+        <v>0.2199650035667986</v>
       </c>
       <c r="N12">
-        <v>0.3342475933795868</v>
+        <v>0.05261401757509887</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.737147047154906</v>
       </c>
       <c r="P12">
-        <v>1.017041813526415</v>
+        <v>0.3599989188612653</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.9287075706931009</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.919276956561134</v>
+        <v>1.750478180053506</v>
       </c>
       <c r="C13">
-        <v>0.1784883670917168</v>
+        <v>0.1991093878627055</v>
       </c>
       <c r="D13">
-        <v>0.08483350837259707</v>
+        <v>0.09818677784338092</v>
       </c>
       <c r="E13">
-        <v>0.05386862885644916</v>
+        <v>0.05211183482154347</v>
       </c>
       <c r="F13">
-        <v>1.334354217652958</v>
+        <v>1.143443155376843</v>
       </c>
       <c r="G13">
-        <v>1.030073659142303</v>
+        <v>0.962260095668185</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.00413709756823355</v>
+        <v>0.003535509508398427</v>
       </c>
       <c r="J13">
-        <v>0.6879712830741482</v>
+        <v>0.4966113029991277</v>
       </c>
       <c r="K13">
-        <v>0.7181923367202785</v>
+        <v>0.5804329904441659</v>
       </c>
       <c r="L13">
-        <v>0.06105932059643848</v>
+        <v>0.2196322513647502</v>
       </c>
       <c r="M13">
-        <v>1.797702313116673</v>
+        <v>0.2198505112300921</v>
       </c>
       <c r="N13">
-        <v>0.332665295443519</v>
+        <v>0.05262265821543721</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.729547174065459</v>
       </c>
       <c r="P13">
-        <v>1.01955711646961</v>
+        <v>0.3583692396629488</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.9313984541420801</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.885852275358559</v>
+        <v>1.723246162002226</v>
       </c>
       <c r="C14">
-        <v>0.1754287688729761</v>
+        <v>0.1967745465223487</v>
       </c>
       <c r="D14">
-        <v>0.08352702847872706</v>
+        <v>0.09592693458350254</v>
       </c>
       <c r="E14">
-        <v>0.05340776738638198</v>
+        <v>0.05150367658272259</v>
       </c>
       <c r="F14">
-        <v>1.324384468037096</v>
+        <v>1.141648506925804</v>
       </c>
       <c r="G14">
-        <v>1.022022254314749</v>
+        <v>0.9417442511585676</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.004511599213510742</v>
+        <v>0.003800846407612468</v>
       </c>
       <c r="J14">
-        <v>0.6852970003612029</v>
+        <v>0.5138567376835255</v>
       </c>
       <c r="K14">
-        <v>0.715252491737175</v>
+        <v>0.5819103375511716</v>
       </c>
       <c r="L14">
-        <v>0.06094233634486557</v>
+        <v>0.2211586861832373</v>
       </c>
       <c r="M14">
-        <v>1.765874325070541</v>
+        <v>0.2190136868339501</v>
       </c>
       <c r="N14">
-        <v>0.3278143840412611</v>
+        <v>0.05258947248747603</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.704029595198705</v>
       </c>
       <c r="P14">
-        <v>1.027160301352342</v>
+        <v>0.353352009095488</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.9398444938321031</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.864425082496609</v>
+        <v>1.705541103940732</v>
       </c>
       <c r="C15">
-        <v>0.1737933955645303</v>
+        <v>0.1955492834564296</v>
       </c>
       <c r="D15">
-        <v>0.08277615187174092</v>
+        <v>0.09462856953351206</v>
       </c>
       <c r="E15">
-        <v>0.05311277790871394</v>
+        <v>0.05112669197866104</v>
       </c>
       <c r="F15">
-        <v>1.317462812571165</v>
+        <v>1.139572596072043</v>
       </c>
       <c r="G15">
-        <v>1.016293604136294</v>
+        <v>0.9291034052587577</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.004855285072427051</v>
+        <v>0.00409255489110194</v>
       </c>
       <c r="J15">
-        <v>0.6832594730404224</v>
+        <v>0.5236242457963272</v>
       </c>
       <c r="K15">
-        <v>0.7128447430407263</v>
+        <v>0.5821787069056157</v>
       </c>
       <c r="L15">
-        <v>0.06083434242210473</v>
+        <v>0.221874830451867</v>
       </c>
       <c r="M15">
-        <v>1.746148837931628</v>
+        <v>0.2182518403638447</v>
       </c>
       <c r="N15">
-        <v>0.3250047698941927</v>
+        <v>0.0525375377190187</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.687956173656829</v>
       </c>
       <c r="P15">
-        <v>1.031514135520904</v>
+        <v>0.3504305942583699</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9448320173889435</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.747904846089</v>
+        <v>1.608003161447272</v>
       </c>
       <c r="C16">
-        <v>0.1630202375608292</v>
+        <v>0.1860752534788759</v>
       </c>
       <c r="D16">
-        <v>0.07818726382615182</v>
+        <v>0.08738415290338963</v>
       </c>
       <c r="E16">
-        <v>0.0515189195475152</v>
+        <v>0.04917167064446026</v>
       </c>
       <c r="F16">
-        <v>1.283640536085485</v>
+        <v>1.129267037940423</v>
       </c>
       <c r="G16">
-        <v>0.9890930931494495</v>
+        <v>0.8715582092669223</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006361509809761579</v>
+        <v>0.005149378361402057</v>
       </c>
       <c r="J16">
-        <v>0.6744349484912391</v>
+        <v>0.572693726631087</v>
       </c>
       <c r="K16">
-        <v>0.7031954054059923</v>
+        <v>0.5853951142135898</v>
       </c>
       <c r="L16">
-        <v>0.06045866455664139</v>
+        <v>0.226591930718957</v>
       </c>
       <c r="M16">
-        <v>1.634938880530655</v>
+        <v>0.2146966279948543</v>
       </c>
       <c r="N16">
-        <v>0.3080614428515815</v>
+        <v>0.05243855635654882</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.594285816981625</v>
       </c>
       <c r="P16">
-        <v>1.058821449630965</v>
+        <v>0.3326507659963625</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9742801539289552</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.676553313763264</v>
+        <v>1.546627929118387</v>
       </c>
       <c r="C17">
-        <v>0.1564759142868013</v>
+        <v>0.1795499439507608</v>
       </c>
       <c r="D17">
-        <v>0.07538830920080386</v>
+        <v>0.08337145015914871</v>
       </c>
       <c r="E17">
-        <v>0.05055103515348591</v>
+        <v>0.04807585823631833</v>
       </c>
       <c r="F17">
-        <v>1.263305701655497</v>
+        <v>1.12017180913837</v>
       </c>
       <c r="G17">
-        <v>0.9727579443921996</v>
+        <v>0.844384734278492</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.007439852094320187</v>
+        <v>0.005921658336513147</v>
       </c>
       <c r="J17">
-        <v>0.6692181476395831</v>
+        <v>0.5935581334367299</v>
       </c>
       <c r="K17">
-        <v>0.6974613962767009</v>
+        <v>0.5859395839417871</v>
       </c>
       <c r="L17">
-        <v>0.06023630519318601</v>
+        <v>0.22898951959667</v>
       </c>
       <c r="M17">
-        <v>1.566930964182916</v>
+        <v>0.2120814372324773</v>
       </c>
       <c r="N17">
-        <v>0.2977766564169997</v>
+        <v>0.05237625982874405</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.53419766500636</v>
       </c>
       <c r="P17">
-        <v>1.075845551144354</v>
+        <v>0.3217012270293509</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9920836815093619</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.637991786136269</v>
+        <v>1.513083114794227</v>
       </c>
       <c r="C18">
-        <v>0.1521417189143932</v>
+        <v>0.174875865198004</v>
       </c>
       <c r="D18">
-        <v>0.07366179278137253</v>
+        <v>0.0810853328198391</v>
       </c>
       <c r="E18">
-        <v>0.05003194688990931</v>
+        <v>0.04751357084883345</v>
       </c>
       <c r="F18">
-        <v>1.253909601949573</v>
+        <v>1.11593734212623</v>
       </c>
       <c r="G18">
-        <v>0.9655818275222572</v>
+        <v>0.8333617078045705</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.007823265174513594</v>
+        <v>0.006072121119771623</v>
       </c>
       <c r="J18">
-        <v>0.6673434524334994</v>
+        <v>0.6027654125121842</v>
       </c>
       <c r="K18">
-        <v>0.6958099904033688</v>
+        <v>0.5871222519788688</v>
       </c>
       <c r="L18">
-        <v>0.06020542574223953</v>
+        <v>0.2306884352635947</v>
       </c>
       <c r="M18">
-        <v>1.528509603881332</v>
+        <v>0.2109632465283227</v>
       </c>
       <c r="N18">
-        <v>0.2915100513774291</v>
+        <v>0.05242066825782565</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.499319155310957</v>
       </c>
       <c r="P18">
-        <v>1.086582536700714</v>
+        <v>0.3149938838469524</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.002742740880132</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.623063979412876</v>
+        <v>1.49986538341949</v>
       </c>
       <c r="C19">
-        <v>0.1511345795212975</v>
+        <v>0.1737654035907354</v>
       </c>
       <c r="D19">
-        <v>0.07317254660893724</v>
+        <v>0.08043281594376595</v>
       </c>
       <c r="E19">
-        <v>0.04983050538128531</v>
+        <v>0.04730408278952147</v>
       </c>
       <c r="F19">
-        <v>1.24909197220164</v>
+        <v>1.112819030414812</v>
       </c>
       <c r="G19">
-        <v>0.9615566360878773</v>
+        <v>0.8286137501769417</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.008183875203074287</v>
+        <v>0.006388624084662453</v>
       </c>
       <c r="J19">
-        <v>0.6659061536163051</v>
+        <v>0.6044755462385325</v>
       </c>
       <c r="K19">
-        <v>0.6940424884289769</v>
+        <v>0.5863767543725089</v>
       </c>
       <c r="L19">
-        <v>0.06012287497252089</v>
+        <v>0.2308421783624439</v>
       </c>
       <c r="M19">
-        <v>1.515033337303805</v>
+        <v>0.2101541649623258</v>
       </c>
       <c r="N19">
-        <v>0.2896952973896987</v>
+        <v>0.05237308134968011</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.486893241797588</v>
       </c>
       <c r="P19">
-        <v>1.089580974040437</v>
+        <v>0.3130264453073579</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.00591783608604</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.684335581163509</v>
+        <v>1.553397930849826</v>
       </c>
       <c r="C20">
-        <v>0.1571236713436974</v>
+        <v>0.1802186644212185</v>
       </c>
       <c r="D20">
-        <v>0.07567605710482184</v>
+        <v>0.08377317230003456</v>
       </c>
       <c r="E20">
-        <v>0.05065637632376863</v>
+        <v>0.04819132108108093</v>
       </c>
       <c r="F20">
-        <v>1.265624016145637</v>
+        <v>1.12139643281354</v>
       </c>
       <c r="G20">
-        <v>0.9746482701742849</v>
+        <v>0.8471398083526509</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.007296318262271839</v>
+        <v>0.005807865935855361</v>
       </c>
       <c r="J20">
-        <v>0.6698489844541342</v>
+        <v>0.5917945313252062</v>
       </c>
       <c r="K20">
-        <v>0.6981888852120406</v>
+        <v>0.586041973839599</v>
       </c>
       <c r="L20">
-        <v>0.06026705014905787</v>
+        <v>0.2287925627832621</v>
       </c>
       <c r="M20">
-        <v>1.574211690705795</v>
+        <v>0.2124166056173422</v>
       </c>
       <c r="N20">
-        <v>0.2988368615246912</v>
+        <v>0.05238930854530821</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.540737503252501</v>
       </c>
       <c r="P20">
-        <v>1.074089102020348</v>
+        <v>0.3228371342450203</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9902409527235765</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.892925476217357</v>
+        <v>1.726241183696857</v>
       </c>
       <c r="C21">
-        <v>0.1769900375834652</v>
+        <v>0.1969206613247536</v>
       </c>
       <c r="D21">
-        <v>0.08404721168173523</v>
+        <v>0.09738203108264543</v>
       </c>
       <c r="E21">
-        <v>0.05350473690571356</v>
+        <v>0.05179526779963339</v>
       </c>
       <c r="F21">
-        <v>1.324900895489307</v>
+        <v>1.135084804563718</v>
       </c>
       <c r="G21">
-        <v>1.022040739884957</v>
+        <v>0.9576772582932875</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.004691152596278947</v>
+        <v>0.004077904248683595</v>
       </c>
       <c r="J21">
-        <v>0.6849023762524524</v>
+        <v>0.4921358746118472</v>
       </c>
       <c r="K21">
-        <v>0.7143491889135873</v>
+        <v>0.5774919749065219</v>
       </c>
       <c r="L21">
-        <v>0.06087169334316656</v>
+        <v>0.2193298977709226</v>
       </c>
       <c r="M21">
-        <v>1.774514415270829</v>
+        <v>0.2176421634741246</v>
       </c>
       <c r="N21">
-        <v>0.3296724772799564</v>
+        <v>0.05249788812148992</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.706485869978991</v>
       </c>
       <c r="P21">
-        <v>1.024007665910332</v>
+        <v>0.3550187915350733</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.9359327907128252</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.033214462295689</v>
+        <v>1.841188308454576</v>
       </c>
       <c r="C22">
-        <v>0.1893619485975506</v>
+        <v>0.2066328460762747</v>
       </c>
       <c r="D22">
-        <v>0.08940037205235996</v>
+        <v>0.1065676564156632</v>
       </c>
       <c r="E22">
-        <v>0.05544850023785841</v>
+        <v>0.05431843198607567</v>
       </c>
       <c r="F22">
-        <v>1.368119065310978</v>
+        <v>1.145478166334371</v>
       </c>
       <c r="G22">
-        <v>1.057199592371106</v>
+        <v>1.042990472334239</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003138165553108863</v>
+        <v>0.002884677973316485</v>
       </c>
       <c r="J22">
-        <v>0.6969069066953466</v>
+        <v>0.4317925557050444</v>
       </c>
       <c r="K22">
-        <v>0.7277854802361645</v>
+        <v>0.5731017749936314</v>
       </c>
       <c r="L22">
-        <v>0.06142726403595589</v>
+        <v>0.2136790184549326</v>
       </c>
       <c r="M22">
-        <v>1.907098844536591</v>
+        <v>0.2218955922373667</v>
       </c>
       <c r="N22">
-        <v>0.3496509614332695</v>
+        <v>0.05269996912561226</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.813862469993552</v>
       </c>
       <c r="P22">
-        <v>0.9933546534662767</v>
+        <v>0.3757386738551531</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.9021156494634921</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.961602056447987</v>
+        <v>1.784760809722769</v>
       </c>
       <c r="C23">
-        <v>0.1819364222868387</v>
+        <v>0.201478355430595</v>
       </c>
       <c r="D23">
-        <v>0.08637320443963858</v>
+        <v>0.1009862970709321</v>
       </c>
       <c r="E23">
-        <v>0.05445403462989873</v>
+        <v>0.05289859566906507</v>
       </c>
       <c r="F23">
-        <v>1.347817980629046</v>
+        <v>1.146079130804949</v>
       </c>
       <c r="G23">
-        <v>1.041142145398908</v>
+        <v>0.9904641342923668</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.003584288209353304</v>
+        <v>0.003085971907656138</v>
       </c>
       <c r="J23">
-        <v>0.6918553956287781</v>
+        <v>0.4747408996009028</v>
       </c>
       <c r="K23">
-        <v>0.7226818094726255</v>
+        <v>0.5790292863447917</v>
       </c>
       <c r="L23">
-        <v>0.06125470604035144</v>
+        <v>0.2179098457083839</v>
       </c>
       <c r="M23">
-        <v>1.837110359223914</v>
+        <v>0.2210625801530064</v>
       </c>
       <c r="N23">
-        <v>0.3384274822686848</v>
+        <v>0.05270616071059564</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.76058998559472</v>
       </c>
       <c r="P23">
-        <v>1.010729233020889</v>
+        <v>0.364298126519742</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.9212376281858559</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.685980342228902</v>
+        <v>1.555200618442768</v>
       </c>
       <c r="C24">
-        <v>0.1555788043684601</v>
+        <v>0.1785084010927136</v>
       </c>
       <c r="D24">
-        <v>0.07528713813562149</v>
+        <v>0.0833241722822109</v>
       </c>
       <c r="E24">
-        <v>0.05068092932427604</v>
+        <v>0.04820774024885743</v>
       </c>
       <c r="F24">
-        <v>1.269135896782302</v>
+        <v>1.125013087984357</v>
       </c>
       <c r="G24">
-        <v>0.9782319194405034</v>
+        <v>0.849911622614016</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.006786454951961396</v>
+        <v>0.00519100465195077</v>
       </c>
       <c r="J24">
-        <v>0.6717991096429472</v>
+        <v>0.5946039897393973</v>
       </c>
       <c r="K24">
-        <v>0.7012089177028074</v>
+        <v>0.5889017419162954</v>
       </c>
       <c r="L24">
-        <v>0.06045247301163315</v>
+        <v>0.2299392194643666</v>
       </c>
       <c r="M24">
-        <v>1.57223900711881</v>
+        <v>0.2133910947161723</v>
       </c>
       <c r="N24">
-        <v>0.2975331821682801</v>
+        <v>0.05255478128161073</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.539057448587727</v>
       </c>
       <c r="P24">
-        <v>1.076672955583767</v>
+        <v>0.3214855310311293</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.992185088063966</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.390455224656591</v>
+        <v>1.287830935386665</v>
       </c>
       <c r="C25">
-        <v>0.1279298821895907</v>
+        <v>0.1444011984876141</v>
       </c>
       <c r="D25">
-        <v>0.0635340766479473</v>
+        <v>0.06975368149839056</v>
       </c>
       <c r="E25">
-        <v>0.04674802094325159</v>
+        <v>0.04447628301397621</v>
       </c>
       <c r="F25">
-        <v>1.190020623368554</v>
+        <v>1.066423311275244</v>
       </c>
       <c r="G25">
-        <v>0.9152642741461818</v>
+        <v>0.8001140766346424</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01218833477562242</v>
+        <v>0.009060325842846773</v>
       </c>
       <c r="J25">
-        <v>0.6529272973983637</v>
+        <v>0.5884292163556779</v>
       </c>
       <c r="K25">
-        <v>0.6806974011591649</v>
+        <v>0.5809571968754952</v>
       </c>
       <c r="L25">
-        <v>0.05970760447985413</v>
+        <v>0.2360519756933925</v>
       </c>
       <c r="M25">
-        <v>1.289314605366002</v>
+        <v>0.2000208579473828</v>
       </c>
       <c r="N25">
-        <v>0.2548442944506917</v>
+        <v>0.05237408172645885</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.266220532887843</v>
       </c>
       <c r="P25">
-        <v>1.15168072628521</v>
+        <v>0.2748219408686765</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.064520513064753</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
